--- a/environment/sensitivities/Pathways to Net Zero - Exact 1-Year Shifting No Double-Deployment - Total revenue.xlsx
+++ b/environment/sensitivities/Pathways to Net Zero - Exact 1-Year Shifting No Double-Deployment - Total revenue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Documents\Work\Research\SAPIENS@SPA-QMUL\TuringProject\RangL-NetZeroTech@MSTeams\General\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B94B6DB3-57FD-4F4C-A46D-0A341A5566E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FED1973-242A-49D6-A19B-F9C990BD4376}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="15540" xr2:uid="{FF8570C7-335C-4546-9E13-E3617A710A2F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="15540" xr2:uid="{18DDD5FF-4445-47EA-99DF-980F820BF0ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043432E7-BE97-4159-9419-762BD58CA51F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DEFA80D-8580-497D-B5C3-CEFCF8BE184B}">
   <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -558,94 +558,94 @@
         <v>2</v>
       </c>
       <c r="D2" s="4">
-        <v>20308.711782646547</v>
+        <v>20998.653586174369</v>
       </c>
       <c r="E2" s="4">
-        <v>22141.030068839755</v>
+        <v>23182.1499898289</v>
       </c>
       <c r="F2" s="4">
-        <v>23653.485139271925</v>
+        <v>25397.939191329097</v>
       </c>
       <c r="G2" s="4">
-        <v>26277.735373930023</v>
+        <v>27230.299722329852</v>
       </c>
       <c r="H2" s="4">
-        <v>26354.275383743181</v>
+        <v>28010.85682385831</v>
       </c>
       <c r="I2" s="4">
-        <v>27210.303646917611</v>
+        <v>27765.720785536021</v>
       </c>
       <c r="J2" s="4">
-        <v>26832.557838874331</v>
+        <v>27549.337589195165</v>
       </c>
       <c r="K2" s="4">
-        <v>26597.56637423607</v>
+        <v>27396.990634972826</v>
       </c>
       <c r="L2" s="4">
-        <v>26606.154116448601</v>
+        <v>26973.272757352486</v>
       </c>
       <c r="M2" s="4">
-        <v>26605.194109421129</v>
+        <v>27348.784781977891</v>
       </c>
       <c r="N2" s="4">
-        <v>26908.478759821959</v>
+        <v>27175.803544904302</v>
       </c>
       <c r="O2" s="4">
-        <v>27129.536568819116</v>
+        <v>27131.452445367664</v>
       </c>
       <c r="P2" s="4">
-        <v>26500.874341975919</v>
+        <v>26502.933637215796</v>
       </c>
       <c r="Q2" s="4">
-        <v>26744.496016783971</v>
+        <v>26746.701889936514</v>
       </c>
       <c r="R2" s="4">
-        <v>26155.920784441969</v>
+        <v>26158.274659338251</v>
       </c>
       <c r="S2" s="4">
-        <v>25842.474032255373</v>
+        <v>25844.975103056044</v>
       </c>
       <c r="T2" s="4">
-        <v>25951.627957041346</v>
+        <v>25954.271617658524</v>
       </c>
       <c r="U2" s="4">
-        <v>25959.919371015236</v>
+        <v>25962.698024644495</v>
       </c>
       <c r="V2" s="4">
-        <v>26377.963918025187</v>
+        <v>26380.865647675797</v>
       </c>
       <c r="W2" s="4">
-        <v>26924.357114382292</v>
+        <v>26927.364741171266</v>
       </c>
       <c r="X2" s="4">
-        <v>27558.281751055743</v>
+        <v>27561.371734661177</v>
       </c>
       <c r="Y2" s="4">
-        <v>28268.329287957658</v>
+        <v>28271.470447629839</v>
       </c>
       <c r="Z2" s="4">
-        <v>29002.57744945665</v>
+        <v>29005.729482074657</v>
       </c>
       <c r="AA2" s="4">
-        <v>29823.533255651848</v>
+        <v>29826.645025643313</v>
       </c>
       <c r="AB2" s="4">
-        <v>30736.404344481867</v>
+        <v>30739.411919242215</v>
       </c>
       <c r="AC2" s="4">
-        <v>31746.815541234468</v>
+        <v>31749.639945364561</v>
       </c>
       <c r="AD2" s="4">
-        <v>32860.828241918847</v>
+        <v>32863.37290470842</v>
       </c>
       <c r="AE2" s="4">
-        <v>34084.952637803486</v>
+        <v>34087.100511756747</v>
       </c>
       <c r="AF2" s="4">
-        <v>35426.148513845757</v>
+        <v>35427.758848905607</v>
       </c>
       <c r="AG2" s="4">
-        <v>36891.808556835902</v>
+        <v>36892.713327124176</v>
       </c>
       <c r="AH2" s="4">
         <v>37522.360459451142</v>
@@ -662,94 +662,94 @@
         <v>2</v>
       </c>
       <c r="D3" s="4">
-        <v>20308.711782646547</v>
+        <v>21000.58766029984</v>
       </c>
       <c r="E3" s="4">
-        <v>22143.526787006827</v>
+        <v>23184.646707995977</v>
       </c>
       <c r="F3" s="4">
-        <v>23657.173752042709</v>
+        <v>25401.627804099884</v>
       </c>
       <c r="G3" s="4">
-        <v>26282.706476180494</v>
+        <v>27235.270824580322</v>
       </c>
       <c r="H3" s="4">
-        <v>26360.942352402792</v>
+        <v>28017.523818106587</v>
       </c>
       <c r="I3" s="4">
-        <v>27210.748103092934</v>
+        <v>27766.165317667277</v>
       </c>
       <c r="J3" s="4">
-        <v>26832.135216622206</v>
+        <v>27548.915128882072</v>
       </c>
       <c r="K3" s="4">
-        <v>26596.714591697179</v>
+        <v>27396.139148370457</v>
       </c>
       <c r="L3" s="4">
-        <v>26604.568066849337</v>
+        <v>26971.687199572341</v>
       </c>
       <c r="M3" s="4">
-        <v>26602.414147370928</v>
+        <v>27346.005584770995</v>
       </c>
       <c r="N3" s="4">
-        <v>26894.174908232064</v>
+        <v>27433.328422770981</v>
       </c>
       <c r="O3" s="4">
-        <v>27673.09921420813</v>
+        <v>27675.003029448133</v>
       </c>
       <c r="P3" s="4">
-        <v>27299.843998956912</v>
+        <v>27301.882207786031</v>
       </c>
       <c r="Q3" s="4">
-        <v>27873.265110479333</v>
+        <v>27875.438796002083</v>
       </c>
       <c r="R3" s="4">
-        <v>27527.167187454954</v>
+        <v>27529.475425495435</v>
       </c>
       <c r="S3" s="4">
-        <v>27475.670099580762</v>
+        <v>27478.109474760338</v>
       </c>
       <c r="T3" s="4">
-        <v>27911.965461457312</v>
+        <v>27914.528528563736</v>
       </c>
       <c r="U3" s="4">
-        <v>28227.994578149996</v>
+        <v>28230.670734620158</v>
       </c>
       <c r="V3" s="4">
-        <v>29050.871048075191</v>
+        <v>29053.645311010001</v>
       </c>
       <c r="W3" s="4">
-        <v>30050.390517517331</v>
+        <v>30053.242748548204</v>
       </c>
       <c r="X3" s="4">
-        <v>31178.505421852973</v>
+        <v>31181.409475985431</v>
       </c>
       <c r="Y3" s="4">
-        <v>32421.134392404507</v>
+        <v>32424.057197603328</v>
       </c>
       <c r="Z3" s="4">
-        <v>33705.370055302577</v>
+        <v>33708.270636153837</v>
       </c>
       <c r="AA3" s="4">
-        <v>35113.441451987957</v>
+        <v>35116.269919913764</v>
       </c>
       <c r="AB3" s="4">
-        <v>36651.283836748044</v>
+        <v>36653.980381811809</v>
       </c>
       <c r="AC3" s="4">
-        <v>38324.861587382708</v>
+        <v>38327.355523836275</v>
       </c>
       <c r="AD3" s="4">
-        <v>40140.053123742247</v>
+        <v>40142.262064635077</v>
       </c>
       <c r="AE3" s="4">
-        <v>42102.497369142213</v>
+        <v>42104.32663654408</v>
       </c>
       <c r="AF3" s="4">
-        <v>44217.390415182999</v>
+        <v>44218.732834556882</v>
       </c>
       <c r="AG3" s="4">
-        <v>46489.217660899216</v>
+        <v>46489.953944525521</v>
       </c>
       <c r="AH3" s="4">
         <v>47067.548913745362</v>
@@ -766,94 +766,94 @@
         <v>2</v>
       </c>
       <c r="D4" s="4">
-        <v>20308.711782646547</v>
+        <v>21003.70834648353</v>
       </c>
       <c r="E4" s="4">
-        <v>22149.475581194984</v>
+        <v>23190.595502184133</v>
       </c>
       <c r="F4" s="4">
-        <v>23665.962408488824</v>
+        <v>25410.416460545996</v>
       </c>
       <c r="G4" s="4">
-        <v>26294.550850353877</v>
+        <v>27247.115198753701</v>
       </c>
       <c r="H4" s="4">
-        <v>26376.827374964771</v>
+        <v>28033.408901637296</v>
       </c>
       <c r="I4" s="4">
-        <v>27211.807084578111</v>
+        <v>27767.224480128512</v>
       </c>
       <c r="J4" s="4">
-        <v>26831.128257634839</v>
+        <v>27547.908555738009</v>
       </c>
       <c r="K4" s="4">
-        <v>26594.685095903966</v>
+        <v>27394.110357689067</v>
       </c>
       <c r="L4" s="4">
-        <v>26600.789072983458</v>
+        <v>26967.909377537053</v>
       </c>
       <c r="M4" s="4">
-        <v>26595.790483432575</v>
+        <v>27339.383743183069</v>
       </c>
       <c r="N4" s="4">
-        <v>26860.093901281303</v>
+        <v>27620.00915029391</v>
       </c>
       <c r="O4" s="4">
-        <v>28094.652141630064</v>
+        <v>28096.548314343709</v>
       </c>
       <c r="P4" s="4">
-        <v>27939.196017304093</v>
+        <v>27941.219425104126</v>
       </c>
       <c r="Q4" s="4">
-        <v>28802.796748403718</v>
+        <v>28804.946471448115</v>
       </c>
       <c r="R4" s="4">
-        <v>28679.692924823317</v>
+        <v>28681.965674839106</v>
       </c>
       <c r="S4" s="4">
-        <v>28875.809232654839</v>
+        <v>28878.198847419571</v>
       </c>
       <c r="T4" s="4">
-        <v>29628.015706228038</v>
+        <v>29630.511607018467</v>
       </c>
       <c r="U4" s="4">
-        <v>30251.802736603659</v>
+        <v>30254.390825547282</v>
       </c>
       <c r="V4" s="4">
-        <v>31486.685870386365</v>
+        <v>31489.347376803584</v>
       </c>
       <c r="W4" s="4">
-        <v>32960.524833665411</v>
+        <v>32963.235674527677</v>
       </c>
       <c r="X4" s="4">
-        <v>34621.662304497986</v>
+        <v>34624.392465150595</v>
       </c>
       <c r="Y4" s="4">
-        <v>36456.747537021765</v>
+        <v>36459.460519904205</v>
       </c>
       <c r="Z4" s="4">
-        <v>38374.050478687357</v>
+        <v>38376.702888867141</v>
       </c>
       <c r="AA4" s="4">
-        <v>40479.609524415799</v>
+        <v>40482.150889053191</v>
       </c>
       <c r="AB4" s="4">
-        <v>42784.108619998005</v>
+        <v>42786.48157662632</v>
       </c>
       <c r="AC4" s="4">
-        <v>45298.139837334544</v>
+        <v>45300.280875998586</v>
       </c>
       <c r="AD4" s="4">
-        <v>48031.891216301105</v>
+        <v>48033.732226952561</v>
       </c>
       <c r="AE4" s="4">
-        <v>50994.735392571274</v>
+        <v>50996.206356638089</v>
       </c>
       <c r="AF4" s="4">
-        <v>54194.691136777888</v>
+        <v>54195.724416978112</v>
       </c>
       <c r="AG4" s="4">
-        <v>57637.722243408294</v>
+        <v>57638.259077130569</v>
       </c>
       <c r="AH4" s="4">
         <v>58118.974763026024</v>
